--- a/data/case1/2/Q2_13.xlsx
+++ b/data/case1/2/Q2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.068162632785259802</v>
+        <v>0.11550149516097719</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999402400306</v>
+        <v>-0.0059999999736781717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.014140475555265652</v>
+        <v>0.027874155385164912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999126787458</v>
+        <v>-0.0079999999601074734</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999576126868</v>
+        <v>-0.0029999999797682975</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999552009484</v>
+        <v>-0.0019999999797732926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998735973428</v>
+        <v>-0.0099999999447679677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998679596303</v>
+        <v>-0.009999999943181237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999398851998</v>
+        <v>-0.0019999999758333331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999326678619</v>
+        <v>-0.0019999999743234298</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999218359719</v>
+        <v>-0.0029999999700347502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999152276473</v>
+        <v>-0.0034999999675413562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999079410316</v>
+        <v>-0.0034999999663600789</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998614637136</v>
+        <v>0.0025885926896167533</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999992957044981</v>
+        <v>-0.00099999997641297966</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999184929784</v>
+        <v>-0.001999999971661115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999167250593</v>
+        <v>-0.0019999999710345051</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999998964779238</v>
+        <v>-0.0039999999622590821</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999596895819</v>
+        <v>-0.00399999998216094</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999561395327</v>
+        <v>-0.0039999999808699727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999556110666</v>
+        <v>-0.0039999999806701325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999552327026</v>
+        <v>-0.0039999999805155895</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999463912204</v>
+        <v>-0.0049999999733856271</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.035299240371288398</v>
+        <v>-0.01999999990641399</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999796689316</v>
+        <v>-0.019999999905198074</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999502135495</v>
+        <v>-0.0024999999774006909</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999501340575</v>
+        <v>-0.0024999999770769499</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999552693382</v>
+        <v>-0.0019999999780306865</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999062337892</v>
+        <v>0.070429069583656023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999382871927</v>
+        <v>-0.05999999972521719</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999203869123</v>
+        <v>-0.0069999999512013744</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.048310856048045636</v>
+        <v>-0.009999999937994275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.031218792413589824</v>
+        <v>-0.0039999999636890493</v>
       </c>
     </row>
   </sheetData>
